--- a/DataCollection/WeatherExperimentData.xlsx
+++ b/DataCollection/WeatherExperimentData.xlsx
@@ -8,43 +8,49 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbywysopal/ResponsiveAR/DataCollection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{79D53050-E6AA-FC42-8B38-DB94C9821323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2676FD4D-84CB-FD41-8DFE-B61C6D9ECC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="27240" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="1440" windowWidth="27240" windowHeight="15940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherExperimentData" sheetId="1" r:id="rId1"/>
     <sheet name="Time Bar Chart" sheetId="2" r:id="rId2"/>
     <sheet name="Time Box and Whisker" sheetId="3" r:id="rId3"/>
-    <sheet name="DistData" sheetId="4" r:id="rId4"/>
-    <sheet name="Dist Bar Chart" sheetId="5" r:id="rId5"/>
-    <sheet name="Dist Box and Whisker" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="DistData" sheetId="4" r:id="rId5"/>
+    <sheet name="Dist Bar Chart" sheetId="5" r:id="rId6"/>
+    <sheet name="Dist Box and Whisker" sheetId="6" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">WeatherExperimentData!$D$23:$D$43</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">WeatherExperimentData!$D$2:$D$22</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">WeatherExperimentData!$D$23:$D$43</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">WeatherExperimentData!$D$2:$D$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">WeatherExperimentData!$D$23:$D$43</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">WeatherExperimentData!$D$2:$D$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">WeatherExperimentData!$D$23:$D$43</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">WeatherExperimentData!$D$2:$D$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">DistData!$D$23:$D$43</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">DistData!$D$2:$D$22</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">WeatherExperimentData!$D$23:$D$43</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">WeatherExperimentData!$D$2:$D$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">WeatherExperimentData!$D$24:$D$44</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">WeatherExperimentData!$D$2:$D$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">DistData!$D$23:$D$43</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">DistData!$D$2:$D$22</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="180" uniqueCount="10">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="194" uniqueCount="18">
   <si>
     <t>userID</t>
   </si>
@@ -74,6 +80,30 @@
   </si>
   <si>
     <t>Avg Ratio</t>
+  </si>
+  <si>
+    <t>Avg Dist R</t>
+  </si>
+  <si>
+    <t>Avg Dist S</t>
+  </si>
+  <si>
+    <t>STD Dist R</t>
+  </si>
+  <si>
+    <t>STD Dist S</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STDV</t>
+  </si>
+  <si>
+    <t>STDERR</t>
+  </si>
+  <si>
+    <t>95%CI</t>
   </si>
 </sst>
 </file>
@@ -661,67 +691,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>53281</c:v>
+                  <c:v>53253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60304</c:v>
+                  <c:v>60275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79772</c:v>
+                  <c:v>79741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96801</c:v>
+                  <c:v>87546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101021</c:v>
+                  <c:v>96772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101462</c:v>
+                  <c:v>100982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103252</c:v>
+                  <c:v>101432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112315</c:v>
+                  <c:v>103221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115263</c:v>
+                  <c:v>112282</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116071</c:v>
+                  <c:v>115233</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121611</c:v>
+                  <c:v>116041</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>125282</c:v>
+                  <c:v>121581</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>168035</c:v>
+                  <c:v>125243</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>174233</c:v>
+                  <c:v>168006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>184847</c:v>
+                  <c:v>174202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>186412</c:v>
+                  <c:v>184813</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>269763</c:v>
+                  <c:v>186372</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>278506</c:v>
+                  <c:v>269733</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>301144</c:v>
+                  <c:v>278465</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>322476</c:v>
+                  <c:v>301113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>480325</c:v>
+                  <c:v>322457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,67 +785,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>44940</c:v>
+                  <c:v>480295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51779</c:v>
+                  <c:v>44899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57069</c:v>
+                  <c:v>51749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58185</c:v>
+                  <c:v>57045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61390</c:v>
+                  <c:v>58136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67825</c:v>
+                  <c:v>61366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75821</c:v>
+                  <c:v>67791</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78521</c:v>
+                  <c:v>75793</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84902</c:v>
+                  <c:v>78492</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89142</c:v>
+                  <c:v>84873</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110901</c:v>
+                  <c:v>89112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>113722</c:v>
+                  <c:v>110861</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117143</c:v>
+                  <c:v>113693</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120456</c:v>
+                  <c:v>117118</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>141613</c:v>
+                  <c:v>120418</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150438</c:v>
+                  <c:v>141572</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169122</c:v>
+                  <c:v>150406</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>200923</c:v>
+                  <c:v>169071</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226164</c:v>
+                  <c:v>217772</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>277205</c:v>
+                  <c:v>226135</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>373073</c:v>
+                  <c:v>277173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,6 +1059,588 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$5:$C$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.4961698663235254E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.5873050458323214E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$5:$C$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.4961698663235254E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.5873050458323214E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Avg Dist R</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Dist S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.63603734707732873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60758648873746568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE71-4D40-BA52-A97B5333ECFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="644530335"/>
+        <c:axId val="644545167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644530335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644545167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644545167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644530335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$5:$F$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>4.1364462677371282E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.5873050458323214E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$E$5:$F$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>4.1364462677371282E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.5873050458323214E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>STD Dist R</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>STD Dist S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.79912204825390387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60758648873746568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68D7-1B4B-832F-5CC54F807606}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="644530335"/>
+        <c:axId val="644545167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644530335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644545167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644545167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644530335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1629,12 +2241,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4135,6 +4747,87 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6A108F-C1D3-0945-BA70-319F97E2FC40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72D0C50-3ABF-FC4F-AF82-89358DB25F72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -4174,7 +4867,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4255,6 +4948,76 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NumpadExperimentData"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Time Bar Chart"/>
+      <sheetName val="Time Box and Whisker"/>
+      <sheetName val="DistData"/>
+      <sheetName val="Dist Bar Chart"/>
+      <sheetName val="Dist Box and Whisker"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Avg Dist R</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Avg Dist S</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>STD Dist R</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>STD Dist S</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.56368087872599026</v>
+          </cell>
+          <cell r="C3">
+            <v>0.56603982165030253</v>
+          </cell>
+          <cell r="E3">
+            <v>1.3407027539208725</v>
+          </cell>
+          <cell r="F3">
+            <v>1.3257132961190701</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>1.1744603408303625E-2</v>
+          </cell>
+          <cell r="C5">
+            <v>3.6322766690040892E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>3.3768935978173931E-2</v>
+          </cell>
+          <cell r="F5">
+            <v>3.6322766690040892E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4554,10 +5317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4596,16 +5359,16 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>53281</v>
+        <v>53253</v>
       </c>
       <c r="E2">
         <v>22</v>
       </c>
       <c r="F2">
-        <v>0.648348472168085</v>
+        <v>0.64832919624512197</v>
       </c>
       <c r="G2">
-        <v>0.72437760396477502</v>
+        <v>0.72437910871178601</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4619,16 +5382,16 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>60304</v>
+        <v>60275</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3">
-        <v>0.62355476695439904</v>
+        <v>0.62354146824730095</v>
       </c>
       <c r="G3">
-        <v>0.796992736171246</v>
+        <v>0.79700263427129603</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4642,21 +5405,21 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>79772</v>
+        <v>79741</v>
       </c>
       <c r="E4">
         <v>26</v>
       </c>
       <c r="F4">
-        <v>0.605187282207858</v>
+        <v>0.60518828479639597</v>
       </c>
       <c r="G4">
-        <v>0.76273988850527497</v>
+        <v>0.76271699122070102</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -4665,21 +5428,21 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>96801</v>
+        <v>87546</v>
       </c>
       <c r="E5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>0.59602345421720404</v>
+        <v>0.59964695471810903</v>
       </c>
       <c r="G5">
-        <v>0.823873462294897</v>
+        <v>0.86965302696510804</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -4688,21 +5451,21 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>101021</v>
+        <v>96772</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0.66210469983487996</v>
+        <v>0.59601373206475505</v>
       </c>
       <c r="G6">
-        <v>0.70529072245173796</v>
+        <v>0.82387484279073897</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4711,21 +5474,21 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>101462</v>
+        <v>100982</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>0.62233105324264304</v>
+        <v>0.66209767386489804</v>
       </c>
       <c r="G7">
-        <v>0.85455321511305204</v>
+        <v>0.70522857653391602</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -4734,21 +5497,21 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>103252</v>
+        <v>101432</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>0.75003086034653299</v>
+        <v>0.62232684848216901</v>
       </c>
       <c r="G8">
-        <v>0.69370197616407003</v>
+        <v>0.85457226161873001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -4757,21 +5520,21 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>112315</v>
+        <v>103221</v>
       </c>
       <c r="E9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>0.59772897381178902</v>
+        <v>0.75002839036880498</v>
       </c>
       <c r="G9">
-        <v>0.73608317389507805</v>
+        <v>0.69371319304119194</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -4780,21 +5543,21 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>115263</v>
+        <v>112282</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>0.631273895743102</v>
+        <v>0.59772773245519395</v>
       </c>
       <c r="G10">
-        <v>0.91208051627011399</v>
+        <v>0.73604101893270102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -4803,21 +5566,21 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>116071</v>
+        <v>115233</v>
       </c>
       <c r="E11">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>0.62763301788777903</v>
+        <v>0.63127388939139495</v>
       </c>
       <c r="G11">
-        <v>0.75590790416928599</v>
+        <v>0.91211860370171804</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -4826,21 +5589,21 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>121611</v>
+        <v>116041</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F12">
-        <v>0.53982160935357504</v>
+        <v>0.62762413544547602</v>
       </c>
       <c r="G12">
-        <v>1.11009750003776</v>
+        <v>0.75589387311840694</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -4849,21 +5612,21 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>125282</v>
+        <v>121581</v>
       </c>
       <c r="E13">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>0.59993810800820002</v>
+        <v>0.53980838436019696</v>
       </c>
       <c r="G13">
-        <v>0.72712893823286495</v>
+        <v>1.1101411317505501</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -4872,21 +5635,21 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>168035</v>
+        <v>125243</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>0.54583128365960698</v>
+        <v>0.59995013945643205</v>
       </c>
       <c r="G14">
-        <v>0.76654920127632997</v>
+        <v>0.72704456798552597</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -4895,21 +5658,21 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>174233</v>
+        <v>168006</v>
       </c>
       <c r="E15">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>0.592363447867992</v>
+        <v>0.54582636913474403</v>
       </c>
       <c r="G15">
-        <v>0.95699769660102296</v>
+        <v>0.76652767749963302</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -4918,21 +5681,21 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>184847</v>
+        <v>174202</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F16">
-        <v>0.60501937990025101</v>
+        <v>0.59235673311019499</v>
       </c>
       <c r="G16">
-        <v>1.16613978073053</v>
+        <v>0.95702181088354499</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -4941,21 +5704,21 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>186412</v>
+        <v>184813</v>
       </c>
       <c r="E17">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>0.62446085400474205</v>
+        <v>0.60501360526112402</v>
       </c>
       <c r="G17">
-        <v>0.63152913439605995</v>
+        <v>1.1661919267665799</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -4964,21 +5727,21 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>269763</v>
+        <v>186372</v>
       </c>
       <c r="E18">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F18">
-        <v>0.74006021061683203</v>
+        <v>0.62445560423380497</v>
       </c>
       <c r="G18">
-        <v>0.52973069935161698</v>
+        <v>0.63147880841898496</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -4987,21 +5750,21 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>278506</v>
+        <v>269733</v>
       </c>
       <c r="E19">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F19">
-        <v>0.54823313602373203</v>
+        <v>0.74006386559997805</v>
       </c>
       <c r="G19">
-        <v>1.2121410575000799</v>
+        <v>0.52970639698002298</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -5010,21 +5773,21 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>301144</v>
+        <v>278465</v>
       </c>
       <c r="E20">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="F20">
-        <v>0.73583435089228899</v>
+        <v>0.54823068523006202</v>
       </c>
       <c r="G20">
-        <v>0.501142903740045</v>
+        <v>1.2121670024598601</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -5033,21 +5796,21 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>322476</v>
+        <v>301113</v>
       </c>
       <c r="E21">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F21">
-        <v>0.79063016508759998</v>
+        <v>0.73583900904034205</v>
       </c>
       <c r="G21">
-        <v>0.87366018737453299</v>
+        <v>0.50111697493962104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -5056,44 +5819,44 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>480325</v>
+        <v>322457</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F22">
-        <v>0.70683501479649902</v>
+        <v>0.79064014420212303</v>
       </c>
       <c r="G22">
-        <v>0.47043915949181903</v>
+        <v>0.87367560953758505</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23">
-        <v>44940</v>
+        <v>480295</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="F23">
-        <v>0.59413343475296099</v>
+        <v>0.70683878999260696</v>
       </c>
       <c r="G23">
-        <v>0.77404280566644301</v>
+        <v>0.470419023457682</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -5102,21 +5865,21 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>51779</v>
+        <v>44899</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F24">
-        <v>0.58414738979988201</v>
+        <v>0.594135290755747</v>
       </c>
       <c r="G24">
-        <v>0.77817008032666801</v>
+        <v>0.77406574480726498</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -5125,21 +5888,21 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>57069</v>
+        <v>51749</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F25">
-        <v>0.61634025960380701</v>
+        <v>0.58414980669734595</v>
       </c>
       <c r="G25">
-        <v>0.72650198119022802</v>
+        <v>0.77811590652997598</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -5148,21 +5911,21 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>58185</v>
+        <v>57045</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F26">
-        <v>0.55529128215439805</v>
+        <v>0.61634268727244901</v>
       </c>
       <c r="G26">
-        <v>0.81549364659204804</v>
+        <v>0.72645293654218901</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -5171,21 +5934,21 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>61390</v>
+        <v>58136</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F27">
-        <v>0.66569679093746503</v>
+        <v>0.55524365952592103</v>
       </c>
       <c r="G27">
-        <v>0.678175582911834</v>
+        <v>0.81547573462468304</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -5194,21 +5957,21 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>67825</v>
+        <v>61366</v>
       </c>
       <c r="E28">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F28">
-        <v>0.59264457360753997</v>
+        <v>0.66569218626008797</v>
       </c>
       <c r="G28">
-        <v>0.737399659851117</v>
+        <v>0.678158158755096</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -5217,21 +5980,21 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>75821</v>
+        <v>67791</v>
       </c>
       <c r="E29">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F29">
-        <v>0.58925276327827503</v>
+        <v>0.59262028496454999</v>
       </c>
       <c r="G29">
-        <v>0.85704580814688403</v>
+        <v>0.73737449571939495</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -5240,21 +6003,21 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>78521</v>
+        <v>75793</v>
       </c>
       <c r="E30">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F30">
-        <v>0.65578547699229905</v>
+        <v>0.58925393357953204</v>
       </c>
       <c r="G30">
-        <v>0.66548820403956499</v>
+        <v>0.85705752420888903</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -5263,21 +6026,21 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>84902</v>
+        <v>78492</v>
       </c>
       <c r="E31">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31">
-        <v>0.552708862342427</v>
+        <v>0.65576801967045795</v>
       </c>
       <c r="G31">
-        <v>0.96994753067763195</v>
+        <v>0.66548477886523105</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -5286,21 +6049,21 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>89142</v>
+        <v>84873</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F32">
-        <v>0.62287047551874797</v>
+        <v>0.55270632304108502</v>
       </c>
       <c r="G32">
-        <v>0.67108905466889202</v>
+        <v>0.96996469524433104</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -5309,21 +6072,21 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>110901</v>
+        <v>89112</v>
       </c>
       <c r="E33">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F33">
-        <v>0.59874282460279304</v>
+        <v>0.62286959377676498</v>
       </c>
       <c r="G33">
-        <v>0.76899450984865003</v>
+        <v>0.67104509781319599</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -5332,21 +6095,21 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>113722</v>
+        <v>110861</v>
       </c>
       <c r="E34">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F34">
-        <v>0.56046328157413405</v>
+        <v>0.59872907029506806</v>
       </c>
       <c r="G34">
-        <v>0.77705488201865403</v>
+        <v>0.76901963799895101</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -5355,21 +6118,21 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>117143</v>
+        <v>113693</v>
       </c>
       <c r="E35">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F35">
-        <v>0.64670269826770299</v>
+        <v>0.56044276337937404</v>
       </c>
       <c r="G35">
-        <v>0.81234214990023501</v>
+        <v>0.777062045011641</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -5378,21 +6141,21 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>120456</v>
+        <v>117118</v>
       </c>
       <c r="E36">
         <v>34</v>
       </c>
       <c r="F36">
-        <v>0.61008350424851099</v>
+        <v>0.646719377093537</v>
       </c>
       <c r="G36">
-        <v>0.85990505666180606</v>
+        <v>0.81235282174164203</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -5401,21 +6164,21 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>141613</v>
+        <v>120418</v>
       </c>
       <c r="E37">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F37">
-        <v>0.55887575053109295</v>
+        <v>0.61008267299054297</v>
       </c>
       <c r="G37">
-        <v>0.91799891702880698</v>
+        <v>0.85989127290579304</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -5424,21 +6187,21 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>150438</v>
+        <v>141572</v>
       </c>
       <c r="E38">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F38">
-        <v>0.51207398581533503</v>
+        <v>0.55886390942558595</v>
       </c>
       <c r="G38">
-        <v>1.0633613093240299</v>
+        <v>0.91802863682871005</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -5447,21 +6210,21 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>169122</v>
+        <v>150406</v>
       </c>
       <c r="E39">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F39">
-        <v>0.67394225850469203</v>
+        <v>0.51207227954077394</v>
       </c>
       <c r="G39">
-        <v>0.66788731924068501</v>
+        <v>1.06337391327691</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -5470,21 +6233,21 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>200923</v>
+        <v>169071</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F40">
-        <v>0.71306356059264697</v>
+        <v>0.67395261423927499</v>
       </c>
       <c r="G40">
-        <v>0.68488772290612299</v>
+        <v>0.66783967782189002</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -5493,21 +6256,21 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>226164</v>
+        <v>217772</v>
       </c>
       <c r="E41">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F41">
-        <v>0.65830041353742996</v>
+        <v>0.63330873457566195</v>
       </c>
       <c r="G41">
-        <v>0.95520415293465799</v>
+        <v>0.91029269128998802</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -5516,21 +6279,21 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>277205</v>
+        <v>226135</v>
       </c>
       <c r="E42">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F42">
-        <v>0.65639380994846797</v>
+        <v>0.658308280890747</v>
       </c>
       <c r="G42">
-        <v>1.0415984793878801</v>
+        <v>0.95522427850333003</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -5539,16 +6302,39 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>373073</v>
+        <v>277173</v>
       </c>
       <c r="E43">
+        <v>69</v>
+      </c>
+      <c r="F43">
+        <v>0.656401546523947</v>
+      </c>
+      <c r="G43">
+        <v>1.04162479414427</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>373051</v>
+      </c>
+      <c r="E44">
         <v>56</v>
       </c>
-      <c r="F43">
-        <v>0.62165537645195501</v>
-      </c>
-      <c r="G43">
-        <v>0.69448547422531604</v>
+      <c r="F44">
+        <v>0.62165322898832598</v>
+      </c>
+      <c r="G44">
+        <v>0.69448686953356498</v>
       </c>
     </row>
   </sheetData>
@@ -5560,7 +6346,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -5574,7 +6360,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5585,6 +6371,134 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00545C4F-34AA-D64F-8C12-ED682CD3892B}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(WeatherExperimentData!F2:F23)</f>
+        <v>0.63603734707732873</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(WeatherExperimentData!F24:F44)</f>
+        <v>0.60758648873746568</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(WeatherExperimentData!G2:G23)</f>
+        <v>0.79912204825390387</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(WeatherExperimentData!F24:F44)</f>
+        <v>0.60758648873746568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <f>STDEV(WeatherExperimentData!F2:F23)</f>
+        <v>6.8563116649395156E-2</v>
+      </c>
+      <c r="C4">
+        <f>STDEV(WeatherExperimentData!F24:F44)</f>
+        <v>4.3934551083158677E-2</v>
+      </c>
+      <c r="E4">
+        <f>STDEV(WeatherExperimentData!G2:G23)</f>
+        <v>0.19401652763857033</v>
+      </c>
+      <c r="F4">
+        <f>STDEV(WeatherExperimentData!F24:F44)</f>
+        <v>4.3934551083158677E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <f>B4/SQRT(COUNT(WeatherExperimentData!F3:F23))</f>
+        <v>1.4961698663235254E-2</v>
+      </c>
+      <c r="C5">
+        <f>C4/SQRT(COUNT(WeatherExperimentData!F24:F44))</f>
+        <v>9.5873050458323214E-3</v>
+      </c>
+      <c r="E5">
+        <f>E4/SQRT(COUNT(WeatherExperimentData!G2:G23))</f>
+        <v>4.1364462677371282E-2</v>
+      </c>
+      <c r="F5">
+        <f>F4/SQRT(COUNT(WeatherExperimentData!F24:F44))</f>
+        <v>9.5873050458323214E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <f>1.96*B5</f>
+        <v>2.9324929379941096E-2</v>
+      </c>
+      <c r="C6">
+        <f>1.96*C5</f>
+        <v>1.8791117889831351E-2</v>
+      </c>
+      <c r="E6">
+        <f>1.96*E5</f>
+        <v>8.1074346847647707E-2</v>
+      </c>
+      <c r="F6">
+        <f>1.96*F5</f>
+        <v>1.8791117889831351E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10B7595-7371-FB41-A8AA-704C66849EB8}">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -6334,7 +7248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B041F4D6-14C3-7B46-9BC1-EBEEE9040E6E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6347,7 +7261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDAB04B-6866-8F40-9D0E-BF867ACE6476}">
   <dimension ref="A1"/>
   <sheetViews>
